--- a/tests/testthat/xlsx_files/cars_additional_spanners.xlsx
+++ b/tests/testthat/xlsx_files/cars_additional_spanners.xlsx
@@ -106,6 +106,17 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
@@ -114,22 +125,12 @@
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
@@ -138,53 +139,47 @@
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="167" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -479,7 +474,7 @@
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1"/>
@@ -490,7 +485,7 @@
       <c r="G1" s="1"/>
     </row>
     <row r="2">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1"/>
@@ -501,195 +496,195 @@
       <c r="G2" s="1"/>
     </row>
     <row r="3">
-      <c r="A3" s="4"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="9" t="s">
+      <c r="A3" s="12"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="5"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="13"/>
     </row>
     <row r="4">
-      <c r="A4" s="3"/>
+      <c r="A4" s="9"/>
       <c r="B4" s="1"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="8" t="s">
+      <c r="C4" s="9"/>
+      <c r="D4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="8"/>
-      <c r="F4" s="3"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="1"/>
       <c r="G4" s="1"/>
-      <c r="H4" s="5"/>
+      <c r="H4" s="13"/>
     </row>
     <row r="5">
-      <c r="A5" s="3"/>
+      <c r="A5" s="9"/>
       <c r="B5" s="1"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="8" t="s">
+      <c r="C5" s="9"/>
+      <c r="D5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="8"/>
-      <c r="H5" s="5"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="13"/>
     </row>
     <row r="6">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="G6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="5"/>
+      <c r="H6" s="13"/>
     </row>
     <row r="7">
-      <c r="A7" s="14" t="n">
+      <c r="A7" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="B7" s="12" t="n">
+      <c r="B7" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="C7" s="16" t="n">
+      <c r="C7" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="D7" s="12" t="n">
+      <c r="D7" s="5" t="n">
         <v>91</v>
       </c>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12" t="n">
+      <c r="E7" s="5"/>
+      <c r="F7" s="5" t="n">
         <v>2.14</v>
       </c>
-      <c r="G7" s="12"/>
-      <c r="H7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="13"/>
     </row>
     <row r="8">
-      <c r="A8" s="13" t="n">
+      <c r="A8" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="B8" s="11" t="n">
+      <c r="B8" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="C8" s="15" t="n">
+      <c r="C8" s="14" t="n">
         <v>10</v>
       </c>
-      <c r="D8" s="11" t="n">
+      <c r="D8" s="5" t="n">
         <v>81.8</v>
       </c>
-      <c r="E8" s="11" t="n">
+      <c r="E8" s="5" t="n">
         <v>21.8723569831877</v>
       </c>
-      <c r="F8" s="11" t="n">
+      <c r="F8" s="5" t="n">
         <v>2.3003</v>
       </c>
-      <c r="G8" s="11" t="n">
+      <c r="G8" s="5" t="n">
         <v>0.598207331208095</v>
       </c>
-      <c r="H8" s="5"/>
+      <c r="H8" s="13"/>
     </row>
     <row r="9">
-      <c r="A9" s="13" t="n">
+      <c r="A9" s="11" t="n">
         <v>6</v>
       </c>
-      <c r="B9" s="11" t="n">
+      <c r="B9" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="C9" s="15" t="n">
+      <c r="C9" s="14" t="n">
         <v>3</v>
       </c>
-      <c r="D9" s="11" t="n">
+      <c r="D9" s="5" t="n">
         <v>131.666666666667</v>
       </c>
-      <c r="E9" s="11" t="n">
+      <c r="E9" s="5" t="n">
         <v>37.5277674973257</v>
       </c>
-      <c r="F9" s="11" t="n">
+      <c r="F9" s="5" t="n">
         <v>2.755</v>
       </c>
-      <c r="G9" s="11" t="n">
+      <c r="G9" s="5" t="n">
         <v>0.128160056179763</v>
       </c>
-      <c r="H9" s="5"/>
+      <c r="H9" s="13"/>
     </row>
     <row r="10">
-      <c r="A10" s="13" t="n">
+      <c r="A10" s="11" t="n">
         <v>6</v>
       </c>
-      <c r="B10" s="11" t="n">
+      <c r="B10" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="C10" s="15" t="n">
+      <c r="C10" s="14" t="n">
         <v>4</v>
       </c>
-      <c r="D10" s="11" t="n">
+      <c r="D10" s="5" t="n">
         <v>115.25</v>
       </c>
-      <c r="E10" s="11" t="n">
+      <c r="E10" s="5" t="n">
         <v>9.17877987534291</v>
       </c>
-      <c r="F10" s="11" t="n">
+      <c r="F10" s="5" t="n">
         <v>3.38875</v>
       </c>
-      <c r="G10" s="11" t="n">
+      <c r="G10" s="5" t="n">
         <v>0.116216392991695</v>
       </c>
-      <c r="H10" s="5"/>
+      <c r="H10" s="13"/>
     </row>
     <row r="11">
       <c r="A11" s="10" t="n">
         <v>8</v>
       </c>
-      <c r="B11" s="11" t="n">
+      <c r="B11" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="C11" s="15" t="n">
+      <c r="C11" s="14" t="n">
         <v>14</v>
       </c>
-      <c r="D11" s="11" t="n">
+      <c r="D11" s="5" t="n">
         <v>209.214285714286</v>
       </c>
-      <c r="E11" s="11" t="n">
+      <c r="E11" s="5" t="n">
         <v>50.9768855182705</v>
       </c>
-      <c r="F11" s="11" t="n">
+      <c r="F11" s="5" t="n">
         <v>3.99921428571429</v>
       </c>
-      <c r="G11" s="11" t="n">
+      <c r="G11" s="5" t="n">
         <v>0.759404744476927</v>
       </c>
-      <c r="H11" s="5"/>
+      <c r="H11" s="13"/>
     </row>
     <row r="12">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="8">
